--- a/biology/Botanique/Veratrum_grandiflorum/Veratrum_grandiflorum.xlsx
+++ b/biology/Botanique/Veratrum_grandiflorum/Veratrum_grandiflorum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Veratrum grandiflorum est une espèce de plantes monocotylédones de la famille des Melanthiaceae, originaire de Chine.
 </t>
@@ -511,16 +523,18 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Veratrum grandiflorum est une plante herbacée robuste, vivace par son rhizome, pouvant atteindre 1,5 m de haut.
 Les feuilles caulinaires sont sessiles, embrassant la tige à la base. Le limbe foliaire, elliptique à oblong-lancéolé, à l'apex obtus-arrondi ou acuminé, mesure de 10 à 15 cm (jusqu'à 26 cm) de long sur 6 à 9 cm (jusqu' 16 cm) de large. Il est très pubescent abaxialement (c'est-à-dire sur la face opposée à l'axe caulinaire).
 L'inflorescence est une panicule ramifiée de 20 à 50 cm de long,
 Les tépales, de couleur blanc-verdâtre, sont généralement oblongs ou elliptiques et mesurent de 1,1 à 1,7 cm de long sur environ 6 mm de large.
 L'ovaire est très pubescent.
-Les fruits sont des capsules de 1,5 à 2,5 de long sur 1 à 1,5 cm de large[2].
+Les fruits sont des capsules de 1,5 à 2,5 de long sur 1 à 1,5 cm de large.
 La floraison et la fructification interviennent en juillet-août.
-Nombre chromosomique : 2 n = 32[2].
+Nombre chromosomique : 2 n = 32.
 </t>
         </is>
       </c>
@@ -549,10 +563,12 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'aire de répartition naturelle de Veratrum grandiflorum se limite à quelques régions de Chine : Hubei, Hunan, Jiangxi, Sichuan, Yunnan, Zhejiang.
-Cette espèce se rencontre dans des prairies humides et sur des pentes boisées, entre 2600 et 4000 m d'altitude[2].
+Cette espèce se rencontre dans des prairies humides et sur des pentes boisées, entre 2600 et 4000 m d'altitude.
 </t>
         </is>
       </c>
@@ -581,10 +597,12 @@
           <t>Composition chimique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1992, des chercheurs japonais ont isolé à partir de feuilles de Veratrum grandiflorum traitées à l'aide d'oxyde de cuivre deux stilbénoïdes antifongiques et leur glucosides. Ces composés ont été identifiés comme étant le resvératrol, l'oxyresvératrol, le resvératrol-3-O-glucoside (picéide) et l'oxyresvératrol-3-O-glucoside, ce dernier composé étant isolé pour la première fois à partir d'une source naturelle[3].
-En outre trois glucoside de flavonoïdes ont également été isolés des feuilles de cette plante : l'apigénine-7-O-glucoside, le lutéoline-7-O-glucoside,  le chrysoériol-7-O-glucoside[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1992, des chercheurs japonais ont isolé à partir de feuilles de Veratrum grandiflorum traitées à l'aide d'oxyde de cuivre deux stilbénoïdes antifongiques et leur glucosides. Ces composés ont été identifiés comme étant le resvératrol, l'oxyresvératrol, le resvératrol-3-O-glucoside (picéide) et l'oxyresvératrol-3-O-glucoside, ce dernier composé étant isolé pour la première fois à partir d'une source naturelle.
+En outre trois glucoside de flavonoïdes ont également été isolés des feuilles de cette plante : l'apigénine-7-O-glucoside, le lutéoline-7-O-glucoside,  le chrysoériol-7-O-glucoside.
 </t>
         </is>
       </c>
@@ -613,9 +631,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (2 avril 2016)[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (2 avril 2016) :
 Veratrum album var. grandiflorum Maxim. ex Miq.,
 Veratrum bracteatum var. tibeticum O.Loes.,
 Veratrum puberulum O.Loes.</t>
